--- a/10.10.70.56/QDDSSRC_SCPLIB/QDDSSRC_SCPLIB.xlsx
+++ b/10.10.70.56/QDDSSRC_SCPLIB/QDDSSRC_SCPLIB.xlsx
@@ -5,16 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\西祺\seedswine_erickao\seedswine-as400\10.10.70.56\QDDSSRC_SCPLIB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SeedsWine\SeedsWine\10.10.70.56\QDDSSRC_SCPLIB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{184A0DCC-55D4-43C5-9A6A-CB4E36F169BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{452930D7-B138-4CE1-ABCB-9BD379F2A34F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{9175D267-210E-43EC-988C-167355B3A31D}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">工作表1!$A$1:$E$284</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -34,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1132" uniqueCount="461">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1211" uniqueCount="467">
   <si>
     <t>CEP001D</t>
   </si>
@@ -1417,6 +1420,30 @@
   </si>
   <si>
     <t>已下載</t>
+  </si>
+  <si>
+    <t>member</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下載</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>text</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>規格書</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1484,9 +1511,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 主題">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1524,7 +1551,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1630,7 +1657,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1772,7 +1799,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1780,13 +1807,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65531170-6871-46E9-B347-6909A36B8F33}">
-  <dimension ref="A2:D284"/>
+  <dimension ref="A1:E284"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="50.375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>461</v>
+      </c>
+      <c r="B1" t="s">
+        <v>462</v>
+      </c>
+      <c r="C1" t="s">
+        <v>463</v>
+      </c>
+      <c r="D1" t="s">
+        <v>464</v>
+      </c>
+      <c r="E1" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1800,7 +1849,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1814,7 +1863,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1828,7 +1877,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1842,7 +1891,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1856,7 +1905,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1870,7 +1919,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1884,7 +1933,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1897,8 +1946,11 @@
       <c r="D9" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E9" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -1912,7 +1964,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -1926,7 +1978,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -1940,7 +1992,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>19</v>
       </c>
@@ -1953,8 +2005,11 @@
       <c r="D13" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E13" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -1967,8 +2022,11 @@
       <c r="D14" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E14" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -1981,8 +2039,11 @@
       <c r="D15" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E15" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>22</v>
       </c>
@@ -1995,8 +2056,11 @@
       <c r="D16" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E16" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>23</v>
       </c>
@@ -2009,8 +2073,11 @@
       <c r="D17" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E17" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>26</v>
       </c>
@@ -2023,8 +2090,11 @@
       <c r="D18" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E18" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>27</v>
       </c>
@@ -2038,7 +2108,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -2051,8 +2121,11 @@
       <c r="D20" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E20" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>29</v>
       </c>
@@ -2066,7 +2139,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>30</v>
       </c>
@@ -2080,7 +2153,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>31</v>
       </c>
@@ -2094,7 +2167,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>32</v>
       </c>
@@ -2108,7 +2181,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>33</v>
       </c>
@@ -2122,7 +2195,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>39</v>
       </c>
@@ -2136,7 +2209,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>40</v>
       </c>
@@ -2150,7 +2223,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>41</v>
       </c>
@@ -2164,7 +2237,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>42</v>
       </c>
@@ -2178,7 +2251,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>43</v>
       </c>
@@ -2192,7 +2265,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>44</v>
       </c>
@@ -2206,7 +2279,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>45</v>
       </c>
@@ -2220,7 +2293,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>46</v>
       </c>
@@ -2234,7 +2307,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>50</v>
       </c>
@@ -2248,7 +2321,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>51</v>
       </c>
@@ -2262,7 +2335,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>52</v>
       </c>
@@ -2276,7 +2349,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>53</v>
       </c>
@@ -2290,7 +2363,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>54</v>
       </c>
@@ -2304,7 +2377,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>55</v>
       </c>
@@ -2318,7 +2391,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>56</v>
       </c>
@@ -2331,8 +2404,11 @@
       <c r="D40" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E40" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>57</v>
       </c>
@@ -2346,7 +2422,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>62</v>
       </c>
@@ -2359,8 +2435,11 @@
       <c r="D42" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E42" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>63</v>
       </c>
@@ -2374,7 +2453,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>64</v>
       </c>
@@ -2388,7 +2467,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>65</v>
       </c>
@@ -2401,8 +2480,11 @@
       <c r="D45" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E45" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>66</v>
       </c>
@@ -2416,7 +2498,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>67</v>
       </c>
@@ -2430,7 +2512,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>68</v>
       </c>
@@ -2443,8 +2525,11 @@
       <c r="D48" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E48" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>69</v>
       </c>
@@ -2457,8 +2542,11 @@
       <c r="D49" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E49" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>72</v>
       </c>
@@ -2472,7 +2560,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>73</v>
       </c>
@@ -2485,8 +2573,11 @@
       <c r="D51" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E51" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>74</v>
       </c>
@@ -2500,7 +2591,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>75</v>
       </c>
@@ -2513,8 +2604,11 @@
       <c r="D53" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E53" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>76</v>
       </c>
@@ -2527,8 +2621,11 @@
       <c r="D54" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E54" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>77</v>
       </c>
@@ -2542,7 +2639,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>78</v>
       </c>
@@ -2556,7 +2653,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>79</v>
       </c>
@@ -2570,7 +2667,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>84</v>
       </c>
@@ -2584,7 +2681,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>85</v>
       </c>
@@ -2598,7 +2695,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>86</v>
       </c>
@@ -2611,8 +2708,11 @@
       <c r="D60" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E60" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>87</v>
       </c>
@@ -2626,7 +2726,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>88</v>
       </c>
@@ -2640,7 +2740,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>89</v>
       </c>
@@ -2654,7 +2754,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>90</v>
       </c>
@@ -2668,7 +2768,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>91</v>
       </c>
@@ -2682,7 +2782,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>99</v>
       </c>
@@ -2696,7 +2796,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>100</v>
       </c>
@@ -2710,7 +2810,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>101</v>
       </c>
@@ -2723,8 +2823,11 @@
       <c r="D68" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E68" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>102</v>
       </c>
@@ -2738,7 +2841,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>103</v>
       </c>
@@ -2752,7 +2855,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>104</v>
       </c>
@@ -2766,7 +2869,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>105</v>
       </c>
@@ -2780,7 +2883,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>106</v>
       </c>
@@ -2794,7 +2897,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>114</v>
       </c>
@@ -2808,7 +2911,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>115</v>
       </c>
@@ -2822,7 +2925,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>116</v>
       </c>
@@ -2836,7 +2939,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>117</v>
       </c>
@@ -2850,7 +2953,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>118</v>
       </c>
@@ -2864,7 +2967,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>119</v>
       </c>
@@ -2878,7 +2981,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>120</v>
       </c>
@@ -2892,7 +2995,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>121</v>
       </c>
@@ -2906,7 +3009,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>130</v>
       </c>
@@ -2920,7 +3023,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>131</v>
       </c>
@@ -2934,7 +3037,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>132</v>
       </c>
@@ -2948,7 +3051,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>133</v>
       </c>
@@ -2962,7 +3065,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>134</v>
       </c>
@@ -2975,8 +3078,11 @@
       <c r="D86" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E86" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>135</v>
       </c>
@@ -2990,7 +3096,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>136</v>
       </c>
@@ -3004,7 +3110,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>137</v>
       </c>
@@ -3018,7 +3124,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>145</v>
       </c>
@@ -3031,8 +3137,11 @@
       <c r="D90" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E90" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>146</v>
       </c>
@@ -3046,7 +3155,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>147</v>
       </c>
@@ -3060,7 +3169,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>148</v>
       </c>
@@ -3073,8 +3182,11 @@
       <c r="D93" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E93" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>149</v>
       </c>
@@ -3088,7 +3200,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>150</v>
       </c>
@@ -3102,7 +3214,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>151</v>
       </c>
@@ -3116,7 +3228,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>152</v>
       </c>
@@ -3129,8 +3241,11 @@
       <c r="D97" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E97" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>157</v>
       </c>
@@ -3143,8 +3258,11 @@
       <c r="D98" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E98" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>158</v>
       </c>
@@ -3158,7 +3276,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>159</v>
       </c>
@@ -3172,7 +3290,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>160</v>
       </c>
@@ -3186,7 +3304,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>161</v>
       </c>
@@ -3200,7 +3318,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>162</v>
       </c>
@@ -3214,7 +3332,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>163</v>
       </c>
@@ -3228,7 +3346,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>164</v>
       </c>
@@ -3242,7 +3360,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>169</v>
       </c>
@@ -3255,8 +3373,11 @@
       <c r="D106" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E106" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>170</v>
       </c>
@@ -3270,7 +3391,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>171</v>
       </c>
@@ -3284,7 +3405,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>172</v>
       </c>
@@ -3297,8 +3418,11 @@
       <c r="D109" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E109" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>173</v>
       </c>
@@ -3312,7 +3436,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>174</v>
       </c>
@@ -3326,7 +3450,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>175</v>
       </c>
@@ -3340,7 +3464,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>176</v>
       </c>
@@ -3354,7 +3478,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>182</v>
       </c>
@@ -3368,7 +3492,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>183</v>
       </c>
@@ -3382,7 +3506,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>184</v>
       </c>
@@ -3396,7 +3520,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>185</v>
       </c>
@@ -3410,7 +3534,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>186</v>
       </c>
@@ -3424,7 +3548,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>187</v>
       </c>
@@ -3437,8 +3561,11 @@
       <c r="D119" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E119" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>188</v>
       </c>
@@ -3451,8 +3578,11 @@
       <c r="D120" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E120" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>189</v>
       </c>
@@ -3466,7 +3596,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>196</v>
       </c>
@@ -3480,7 +3610,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>197</v>
       </c>
@@ -3493,8 +3623,11 @@
       <c r="D123" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E123" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>198</v>
       </c>
@@ -3508,7 +3641,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>199</v>
       </c>
@@ -3522,7 +3655,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>200</v>
       </c>
@@ -3536,7 +3669,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>201</v>
       </c>
@@ -3550,7 +3683,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>202</v>
       </c>
@@ -3563,8 +3696,11 @@
       <c r="D128" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E128" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>203</v>
       </c>
@@ -3578,7 +3714,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>208</v>
       </c>
@@ -3592,7 +3728,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>209</v>
       </c>
@@ -3606,7 +3742,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>210</v>
       </c>
@@ -3620,7 +3756,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>211</v>
       </c>
@@ -3634,7 +3770,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>212</v>
       </c>
@@ -3648,7 +3784,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>213</v>
       </c>
@@ -3661,8 +3797,11 @@
       <c r="D135" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E135" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>214</v>
       </c>
@@ -3675,8 +3814,11 @@
       <c r="D136" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E136" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>215</v>
       </c>
@@ -3689,8 +3831,11 @@
       <c r="D137" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E137" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>221</v>
       </c>
@@ -3704,7 +3849,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>222</v>
       </c>
@@ -3717,8 +3862,11 @@
       <c r="D139" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E139" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>223</v>
       </c>
@@ -3731,8 +3879,11 @@
       <c r="D140" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E140" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>224</v>
       </c>
@@ -3746,7 +3897,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>225</v>
       </c>
@@ -3759,8 +3910,11 @@
       <c r="D142" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E142" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>226</v>
       </c>
@@ -3773,8 +3927,11 @@
       <c r="D143" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E143" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>227</v>
       </c>
@@ -3788,7 +3945,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>228</v>
       </c>
@@ -3801,8 +3958,11 @@
       <c r="D145" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E145" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>232</v>
       </c>
@@ -3816,7 +3976,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>233</v>
       </c>
@@ -3830,7 +3990,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>234</v>
       </c>
@@ -3844,7 +4004,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>235</v>
       </c>
@@ -3857,8 +4017,11 @@
       <c r="D149" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E149" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>236</v>
       </c>
@@ -3872,7 +4035,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>237</v>
       </c>
@@ -3886,7 +4049,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>238</v>
       </c>
@@ -3900,7 +4063,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>239</v>
       </c>
@@ -3914,7 +4077,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>247</v>
       </c>
@@ -3928,7 +4091,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>248</v>
       </c>
@@ -3941,8 +4104,11 @@
       <c r="D155" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E155" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>249</v>
       </c>
@@ -3956,7 +4122,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>250</v>
       </c>
@@ -3970,7 +4136,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>251</v>
       </c>
@@ -3983,8 +4149,11 @@
       <c r="D158" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E158" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>252</v>
       </c>
@@ -3998,7 +4167,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>253</v>
       </c>
@@ -4012,7 +4181,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>254</v>
       </c>
@@ -4026,7 +4195,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>261</v>
       </c>
@@ -4040,7 +4209,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>262</v>
       </c>
@@ -4054,7 +4223,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>263</v>
       </c>
@@ -4068,7 +4237,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>264</v>
       </c>
@@ -4082,7 +4251,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>265</v>
       </c>
@@ -4096,7 +4265,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>266</v>
       </c>
@@ -4110,7 +4279,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>267</v>
       </c>
@@ -4124,7 +4293,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>268</v>
       </c>
@@ -4137,8 +4306,11 @@
       <c r="D169" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E169" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>277</v>
       </c>
@@ -4151,8 +4323,11 @@
       <c r="D170" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E170" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>278</v>
       </c>
@@ -4165,8 +4340,11 @@
       <c r="D171" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E171" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>279</v>
       </c>
@@ -4180,7 +4358,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>280</v>
       </c>
@@ -4193,8 +4371,11 @@
       <c r="D173" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E173" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>281</v>
       </c>
@@ -4208,7 +4389,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>282</v>
       </c>
@@ -4222,7 +4403,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>283</v>
       </c>
@@ -4236,7 +4417,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>284</v>
       </c>
@@ -4249,8 +4430,11 @@
       <c r="D177" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E177" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>290</v>
       </c>
@@ -4263,8 +4447,11 @@
       <c r="D178" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E178" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>291</v>
       </c>
@@ -4277,8 +4464,11 @@
       <c r="D179" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E179" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>292</v>
       </c>
@@ -4292,7 +4482,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>293</v>
       </c>
@@ -4306,7 +4496,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>294</v>
       </c>
@@ -4319,8 +4509,11 @@
       <c r="D182" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E182" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>295</v>
       </c>
@@ -4334,7 +4527,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>296</v>
       </c>
@@ -4348,7 +4541,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>297</v>
       </c>
@@ -4362,7 +4555,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>301</v>
       </c>
@@ -4376,7 +4569,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>302</v>
       </c>
@@ -4390,7 +4583,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>303</v>
       </c>
@@ -4404,7 +4597,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>304</v>
       </c>
@@ -4417,8 +4610,11 @@
       <c r="D189" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E189" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>305</v>
       </c>
@@ -4431,8 +4627,11 @@
       <c r="D190" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E190" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>306</v>
       </c>
@@ -4445,8 +4644,11 @@
       <c r="D191" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E191" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>307</v>
       </c>
@@ -4459,8 +4661,11 @@
       <c r="D192" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E192" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>308</v>
       </c>
@@ -4473,8 +4678,11 @@
       <c r="D193" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E193" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>311</v>
       </c>
@@ -4488,7 +4696,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>312</v>
       </c>
@@ -4502,7 +4710,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>313</v>
       </c>
@@ -4516,7 +4724,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>314</v>
       </c>
@@ -4529,8 +4737,11 @@
       <c r="D197" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E197" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>315</v>
       </c>
@@ -4544,7 +4755,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>316</v>
       </c>
@@ -4557,8 +4768,11 @@
       <c r="D199" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E199" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>317</v>
       </c>
@@ -4572,7 +4786,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>318</v>
       </c>
@@ -4585,8 +4799,11 @@
       <c r="D201" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E201" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>323</v>
       </c>
@@ -4599,8 +4816,11 @@
       <c r="D202" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E202" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>324</v>
       </c>
@@ -4613,8 +4833,11 @@
       <c r="D203" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E203" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>325</v>
       </c>
@@ -4627,8 +4850,11 @@
       <c r="D204" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E204" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>326</v>
       </c>
@@ -4642,7 +4868,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>327</v>
       </c>
@@ -4655,8 +4881,11 @@
       <c r="D206" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E206" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>328</v>
       </c>
@@ -4669,8 +4898,11 @@
       <c r="D207" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E207" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>329</v>
       </c>
@@ -4683,8 +4915,11 @@
       <c r="D208" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E208" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>330</v>
       </c>
@@ -4698,7 +4933,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>332</v>
       </c>
@@ -4712,7 +4947,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>333</v>
       </c>
@@ -4726,7 +4961,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>334</v>
       </c>
@@ -4740,7 +4975,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>335</v>
       </c>
@@ -4754,7 +4989,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>336</v>
       </c>
@@ -4768,7 +5003,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>337</v>
       </c>
@@ -4782,7 +5017,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>338</v>
       </c>
@@ -4796,7 +5031,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>339</v>
       </c>
@@ -4809,8 +5044,11 @@
       <c r="D217" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E217" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>345</v>
       </c>
@@ -4824,7 +5062,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>346</v>
       </c>
@@ -4837,8 +5075,11 @@
       <c r="D219" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E219" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>347</v>
       </c>
@@ -4852,7 +5093,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>348</v>
       </c>
@@ -4866,7 +5107,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>349</v>
       </c>
@@ -4880,7 +5121,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>350</v>
       </c>
@@ -4894,7 +5135,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>351</v>
       </c>
@@ -4908,7 +5149,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>352</v>
       </c>
@@ -4922,7 +5163,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>359</v>
       </c>
@@ -4936,7 +5177,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>360</v>
       </c>
@@ -4950,7 +5191,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>361</v>
       </c>
@@ -4964,7 +5205,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>362</v>
       </c>
@@ -4978,7 +5219,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>363</v>
       </c>
@@ -4992,7 +5233,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>364</v>
       </c>
@@ -5006,7 +5247,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>365</v>
       </c>
@@ -5019,8 +5260,11 @@
       <c r="D232" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E232" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>366</v>
       </c>
@@ -5034,7 +5278,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>371</v>
       </c>
@@ -5047,8 +5291,11 @@
       <c r="D234" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E234" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>372</v>
       </c>
@@ -5062,7 +5309,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>373</v>
       </c>
@@ -5075,8 +5322,11 @@
       <c r="D236" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E236" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>374</v>
       </c>
@@ -5090,7 +5340,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>375</v>
       </c>
@@ -5103,8 +5353,11 @@
       <c r="D238" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E238" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>376</v>
       </c>
@@ -5118,7 +5371,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>377</v>
       </c>
@@ -5131,8 +5384,11 @@
       <c r="D240" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E240" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>378</v>
       </c>
@@ -5145,8 +5401,11 @@
       <c r="D241" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E241" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>381</v>
       </c>
@@ -5160,7 +5419,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>382</v>
       </c>
@@ -5173,8 +5432,11 @@
       <c r="D243" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E243" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>383</v>
       </c>
@@ -5188,7 +5450,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>384</v>
       </c>
@@ -5202,7 +5464,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>385</v>
       </c>
@@ -5216,7 +5478,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>386</v>
       </c>
@@ -5230,7 +5492,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>387</v>
       </c>
@@ -5244,7 +5506,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>388</v>
       </c>
@@ -5258,7 +5520,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>395</v>
       </c>
@@ -5272,7 +5534,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>396</v>
       </c>
@@ -5286,7 +5548,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>397</v>
       </c>
@@ -5300,7 +5562,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>398</v>
       </c>
@@ -5314,7 +5576,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>399</v>
       </c>
@@ -5328,7 +5590,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>400</v>
       </c>
@@ -5342,7 +5604,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>401</v>
       </c>
@@ -5356,7 +5618,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>402</v>
       </c>
@@ -5370,7 +5632,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>411</v>
       </c>
@@ -5384,7 +5646,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>412</v>
       </c>
@@ -5397,8 +5659,11 @@
       <c r="D259" t="s">
         <v>419</v>
       </c>
-    </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E259" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>413</v>
       </c>
@@ -5412,7 +5677,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>414</v>
       </c>
@@ -5426,7 +5691,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>415</v>
       </c>
@@ -5440,7 +5705,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>416</v>
       </c>
@@ -5453,8 +5718,11 @@
       <c r="D263" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E263" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>417</v>
       </c>
@@ -5467,8 +5735,11 @@
       <c r="D264" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E264" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>418</v>
       </c>
@@ -5482,7 +5753,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>423</v>
       </c>
@@ -5496,7 +5767,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>424</v>
       </c>
@@ -5510,7 +5781,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>425</v>
       </c>
@@ -5524,7 +5795,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>426</v>
       </c>
@@ -5538,7 +5809,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>427</v>
       </c>
@@ -5552,7 +5823,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>428</v>
       </c>
@@ -5566,7 +5837,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>429</v>
       </c>
@@ -5749,6 +6020,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:E284" xr:uid="{65531170-6871-46E9-B347-6909A36B8F33}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
